--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3161.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3161.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.853762430335919</v>
+        <v>0.7823839783668518</v>
       </c>
       <c r="B1">
-        <v>2.099840561747474</v>
+        <v>1.150339961051941</v>
       </c>
       <c r="C1">
-        <v>2.174033077876135</v>
+        <v>2.332760334014893</v>
       </c>
       <c r="D1">
-        <v>2.794965362834729</v>
+        <v>3.868865966796875</v>
       </c>
       <c r="E1">
-        <v>4.40154074733708</v>
+        <v>1.888971090316772</v>
       </c>
     </row>
   </sheetData>
